--- a/буфер.xlsx
+++ b/буфер.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="166">
   <si>
     <t xml:space="preserve">НАИМЕНОВАНИЕ</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t xml:space="preserve">ЮТА BLACK-OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХРЕНЬ_2</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -559,12 +562,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -605,7 +614,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -626,6 +635,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ135"/>
+  <dimension ref="A1:AMJ136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A136" activeCellId="0" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6029,32 +6042,32 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>38.8209</v>
+        <v>28.5995</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>37.656273</v>
+        <v>27.741515</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>36.491646</v>
+        <v>26.88353</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>35.327019</v>
+        <v>26.025545</v>
       </c>
       <c r="F132" s="1" t="n">
-        <v>34.162392</v>
+        <v>25.16756</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>32.997765</v>
+        <v>24.309575</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>15</v>
@@ -6063,10 +6076,10 @@
         <v>16</v>
       </c>
       <c r="L132" s="2" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,28 +6087,28 @@
         <v>161</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>65.27247213</v>
+        <v>38.8209</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>63.3142979661</v>
+        <v>37.656273</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>61.3561238022</v>
+        <v>36.491646</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>59.3979496383</v>
+        <v>35.327019</v>
       </c>
       <c r="F133" s="1" t="n">
-        <v>57.4397754744</v>
+        <v>34.162392</v>
       </c>
       <c r="G133" s="1" t="n">
-        <v>55.4816013105</v>
+        <v>32.997765</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>15</v>
@@ -6104,56 +6117,133 @@
         <v>16</v>
       </c>
       <c r="L133" s="2" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>65.27247213</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>63.3142979661</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>61.3561238022</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>59.3979496383</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>57.4397754744</v>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>55.4816013105</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B134" s="1" t="n">
-        <v>21.35581521</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>20.7151407537</v>
-      </c>
-      <c r="D134" s="1" t="n">
-        <v>20.0744662974</v>
-      </c>
-      <c r="E134" s="1" t="n">
-        <v>19.4337918411</v>
-      </c>
-      <c r="F134" s="1" t="n">
-        <v>18.7931173848</v>
-      </c>
-      <c r="G134" s="1" t="n">
-        <v>18.1524429285</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I134" s="1" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L134" s="2" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>164</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>21.35581521</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>20.7151407537</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>20.0744662974</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>19.4337918411</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>18.7931173848</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>18.1524429285</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>28.5995</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>27.741515</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>26.88353</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>26.025545</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>25.16756</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>24.309575</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
